--- a/biology/Zoologie/Ceratinia_neso/Ceratinia_neso.xlsx
+++ b/biology/Zoologie/Ceratinia_neso/Ceratinia_neso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratinia neso est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae, tribu des Ithomiini et du genre  Ceratinia.
 </t>
@@ -511,15 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinia neso a été décrit par l'entomologiste allemand Jacob Hübner en 1806 sous le nom initial de Nereis neso [1].
-La localité type est le Brésil[2].
-Synonymie
-Nereis neso protonyme
-Nom vernaculaire
-Ceratinia  neso se nomme Neso Tigerwing en anglais[3].
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ceratinia neso a été décrit par l'entomologiste allemand Jacob Hübner en 1806 sous le nom initial de Nereis neso .
+La localité type est le Brésil.</t>
         </is>
       </c>
     </row>
@@ -544,10 +553,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nereis neso protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia  neso se nomme Neso Tigerwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sous-espèces
 Ceratinia neso neso ; présent au Brésil
@@ -555,11 +639,11 @@
 Ceratinia nise zikani (d'Almeida, 1956)
 Ceratinia neso espriella (Hewitson, 1868); présent en Équateur
 Synonymie pour cette sous espèce
-Ithomia espriella (Hewitson, 1868)[4]
+Ithomia espriella (Hewitson, 1868)
 Ceratinia bisulca (Fox, 1945)
 Ceratinia neso hamlini (Weeks, 1906); présent au Venezuela.
 Synonymie pour cette sous espèce
-Ithomia hamlini (Weeks, 1906)[5]
+Ithomia hamlini (Weeks, 1906)
 Ceratinia neso nisea (Godart, 1819) présent au Surinam, en Guyana et en Guyane.
 Synonymie pour cette sous espèce
 Heliconia neso nisea (Godart, 1819)
@@ -574,69 +658,7 @@
 Ceratinia neso tarapotis (Haensch, 1909); présent au Pérou.
 Synonymie pour cette sous espèce
 Calloleria neso tarapotis (Haensch, 1909)
-Ceratinia neso ssp[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ceratinia_neso</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ceratinia_neso</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinia  neso est un papillon d'une envergure de 45 mm à 60 mm, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Les ailes antérieures ont une partie basale orangée et le reste de l'aile jaune avec un apex marron. Les ailes postérieures sont orangées avec une fine ligne marron en bordure et une ligne marron qui lui est parallèle[6],[7].
-Le revers est semblable en plus clair avec une ligne de point blanc dans la marge marron.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ceratinia_neso</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ceratinia_neso</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+Ceratinia neso ssp.</t>
         </is>
       </c>
     </row>
@@ -661,16 +683,122 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia  neso est un papillon d'une envergure de 45 mm à 60 mm, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Les ailes antérieures ont une partie basale orangée et le reste de l'aile jaune avec un apex marron. Les ailes postérieures sont orangées avec une fine ligne marron en bordure et une ligne marron qui lui est parallèle,.
+Le revers est semblable en plus clair avec une ligne de point blanc dans la marge marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinia neso est présent en Équateur,  au Pérou, au Brésil,au Venezuela, au Surinam, en Guyana et en Guyane[2].
-Biotope
-Il réside en sous-bois.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinia neso est présent en Équateur,  au Pérou, au Brésil,au Venezuela, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en sous-bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia_neso</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Ceratinia neso, sur Wikimedia CommonsCeratinia neso, sur Wikispecies
 </t>
